--- a/Test/Void/void - Speakers Corner.xlsx
+++ b/Test/Void/void - Speakers Corner.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1728"/>
+  <dimension ref="A1:F1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11228,77 +11228,77 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>0793018368919</t>
+          <t>0793018365512</t>
         </is>
       </c>
       <c r="F1088" t="n">
-        <v>134.64</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>0793018370110</t>
+          <t>0793018368919</t>
         </is>
       </c>
       <c r="F1089" t="n">
-        <v>100.29</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>0793018368018</t>
+          <t>0793018370110</t>
         </is>
       </c>
       <c r="F1090" t="n">
-        <v>179.04</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>0793018368117</t>
+          <t>0888072396906</t>
         </is>
       </c>
       <c r="F1091" t="n">
-        <v>134.64</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>0793018368216</t>
+          <t>0793018368018</t>
         </is>
       </c>
       <c r="F1092" t="n">
-        <v>134.64</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>4009850001010</t>
+          <t>0793018368117</t>
         </is>
       </c>
       <c r="F1093" t="n">
-        <v>65.34</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>4009850011712</t>
+          <t>0793018368216</t>
         </is>
       </c>
       <c r="F1094" t="n">
-        <v>65.34</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>4009850013617</t>
+          <t>4009850001010</t>
         </is>
       </c>
       <c r="F1095" t="n">
@@ -11308,7 +11308,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>4009850014911</t>
+          <t>4009850011712</t>
         </is>
       </c>
       <c r="F1096" t="n">
@@ -11318,7 +11318,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>4009850020912</t>
+          <t>4009850013617</t>
         </is>
       </c>
       <c r="F1097" t="n">
@@ -11328,27 +11328,27 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>4009850021919</t>
+          <t>4009850014911</t>
         </is>
       </c>
       <c r="F1098" t="n">
-        <v>116.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>4009850023814</t>
+          <t>4009850020912</t>
         </is>
       </c>
       <c r="F1099" t="n">
-        <v>116.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>4009850023913</t>
+          <t>4009850021919</t>
         </is>
       </c>
       <c r="F1100" t="n">
@@ -11358,47 +11358,47 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>4009850024019</t>
+          <t>4009850023814</t>
         </is>
       </c>
       <c r="F1101" t="n">
-        <v>65.34</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>0753088501173</t>
+          <t>4009850023913</t>
         </is>
       </c>
       <c r="F1102" t="n">
-        <v>203.3</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>0888072005174</t>
+          <t>4009850024019</t>
         </is>
       </c>
       <c r="F1103" t="n">
-        <v>134.64</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>0888072044562</t>
+          <t>0753088501173</t>
         </is>
       </c>
       <c r="F1104" t="n">
-        <v>134.64</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>0888072047341</t>
+          <t>0888072005174</t>
         </is>
       </c>
       <c r="F1105" t="n">
@@ -11408,97 +11408,97 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>0753088610417</t>
+          <t>0888072044562</t>
         </is>
       </c>
       <c r="F1106" t="n">
-        <v>121.82</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>0753088710018</t>
+          <t>0888072047341</t>
         </is>
       </c>
       <c r="F1107" t="n">
-        <v>121.82</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>0753088003813</t>
+          <t>0753088610417</t>
         </is>
       </c>
       <c r="F1108" t="n">
-        <v>203.3</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>0707129301536</t>
+          <t>0753088710018</t>
         </is>
       </c>
       <c r="F1109" t="n">
-        <v>100.29</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>0711574835713</t>
+          <t>0753088003813</t>
         </is>
       </c>
       <c r="F1110" t="n">
-        <v>87.47</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>4260019715623</t>
+          <t>0707129301536</t>
         </is>
       </c>
       <c r="F1111" t="n">
-        <v>65.34</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>0753088714511</t>
+          <t>0711574835713</t>
         </is>
       </c>
       <c r="F1112" t="n">
-        <v>203.3</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>4009850096818</t>
+          <t>4260019715623</t>
         </is>
       </c>
       <c r="F1113" t="n">
-        <v>81.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>4009850096917</t>
+          <t>0753088714511</t>
         </is>
       </c>
       <c r="F1114" t="n">
-        <v>81.67</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>4009850097013</t>
+          <t>4009850096818</t>
         </is>
       </c>
       <c r="F1115" t="n">
@@ -11508,67 +11508,67 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>0888072044586</t>
+          <t>4009850096917</t>
         </is>
       </c>
       <c r="F1116" t="n">
-        <v>134.64</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>0753088304118</t>
+          <t>4009850097013</t>
         </is>
       </c>
       <c r="F1117" t="n">
-        <v>203.3</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>0753088305214</t>
+          <t>0888072044586</t>
         </is>
       </c>
       <c r="F1118" t="n">
-        <v>203.3</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>0684334915751</t>
+          <t>0753088304118</t>
         </is>
       </c>
       <c r="F1119" t="n">
-        <v>140.09</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>4260019715555</t>
+          <t>0753088305214</t>
         </is>
       </c>
       <c r="F1120" t="n">
-        <v>65.34</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>4260019715661</t>
+          <t>0684334915751</t>
         </is>
       </c>
       <c r="F1121" t="n">
-        <v>65.34</v>
+        <v>140.09</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>4260019715685</t>
+          <t>4260019715555</t>
         </is>
       </c>
       <c r="F1122" t="n">
@@ -11578,37 +11578,37 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>0888072044579</t>
+          <t>4260019715661</t>
         </is>
       </c>
       <c r="F1123" t="n">
-        <v>179.04</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>8803581787016</t>
+          <t>4260019715685</t>
         </is>
       </c>
       <c r="F1124" t="n">
-        <v>110.34</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>0753088719110</t>
+          <t>0888072044579</t>
         </is>
       </c>
       <c r="F1125" t="n">
-        <v>121.82</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>8803581787030</t>
+          <t>8803581787016</t>
         </is>
       </c>
       <c r="F1126" t="n">
@@ -11618,67 +11618,67 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>0753088303418</t>
+          <t>0753088719110</t>
         </is>
       </c>
       <c r="F1127" t="n">
-        <v>203.3</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>0753088303715</t>
+          <t>8803581787030</t>
         </is>
       </c>
       <c r="F1128" t="n">
-        <v>203.3</v>
+        <v>110.34</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>0707129301505</t>
+          <t>0753088303418</t>
         </is>
       </c>
       <c r="F1129" t="n">
-        <v>121.82</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>0707129301574</t>
+          <t>0753088303715</t>
         </is>
       </c>
       <c r="F1130" t="n">
-        <v>121.82</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>0711574813018</t>
+          <t>0707129301505</t>
         </is>
       </c>
       <c r="F1131" t="n">
-        <v>87.47</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>0711574836710</t>
+          <t>0707129301574</t>
         </is>
       </c>
       <c r="F1132" t="n">
-        <v>87.47</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>0711574828111</t>
+          <t>0711574813018</t>
         </is>
       </c>
       <c r="F1133" t="n">
@@ -11688,7 +11688,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>0711574835911</t>
+          <t>0711574836710</t>
         </is>
       </c>
       <c r="F1134" t="n">
@@ -11698,47 +11698,47 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>5060149622834</t>
+          <t>0711574828111</t>
         </is>
       </c>
       <c r="F1135" t="n">
-        <v>76.87</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>5060149622827</t>
+          <t>0711574835911</t>
         </is>
       </c>
       <c r="F1136" t="n">
-        <v>76.87</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>4260019715739</t>
+          <t>5060149622834</t>
         </is>
       </c>
       <c r="F1137" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>4260019715722</t>
+          <t>5060149622827</t>
         </is>
       </c>
       <c r="F1138" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>4260019715715</t>
+          <t>4260019715739</t>
         </is>
       </c>
       <c r="F1139" t="n">
@@ -11748,27 +11748,27 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>8809355974798</t>
+          <t>4260019715722</t>
         </is>
       </c>
       <c r="F1140" t="n">
-        <v>183.15</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>0753088720031</t>
+          <t>4260019715715</t>
         </is>
       </c>
       <c r="F1141" t="n">
-        <v>121.82</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>8809355974811</t>
+          <t>8809355974798</t>
         </is>
       </c>
       <c r="F1142" t="n">
@@ -11778,127 +11778,127 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>8809355974828</t>
+          <t>0753088720031</t>
         </is>
       </c>
       <c r="F1143" t="n">
-        <v>183.15</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>0753088812712</t>
+          <t>8809355974811</t>
         </is>
       </c>
       <c r="F1144" t="n">
-        <v>121.82</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>0753088819216</t>
+          <t>8809355974828</t>
         </is>
       </c>
       <c r="F1145" t="n">
-        <v>121.82</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>0711574836314</t>
+          <t>0753088812712</t>
         </is>
       </c>
       <c r="F1146" t="n">
-        <v>87.47</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>0711574836116</t>
+          <t>0753088819216</t>
         </is>
       </c>
       <c r="F1147" t="n">
-        <v>104.4</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>0190758123318</t>
+          <t>0711574836314</t>
         </is>
       </c>
       <c r="F1148" t="n">
-        <v>104.4</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>5060149622865</t>
+          <t>0711574836116</t>
         </is>
       </c>
       <c r="F1149" t="n">
-        <v>76.87</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>0753088819278</t>
+          <t>0190758123318</t>
         </is>
       </c>
       <c r="F1150" t="n">
-        <v>203.3</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>0753088831515</t>
+          <t>5060149622865</t>
         </is>
       </c>
       <c r="F1151" t="n">
-        <v>121.82</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>0711574848515</t>
+          <t>0753088819278</t>
         </is>
       </c>
       <c r="F1152" t="n">
-        <v>87.47</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>0711574849215</t>
+          <t>0888072068032</t>
         </is>
       </c>
       <c r="F1153" t="n">
-        <v>87.47</v>
+        <v>179.04</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>0711574848218</t>
+          <t>0753088831515</t>
         </is>
       </c>
       <c r="F1154" t="n">
-        <v>104.4</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>0711574848317</t>
+          <t>0711574848515</t>
         </is>
       </c>
       <c r="F1155" t="n">
@@ -11908,77 +11908,77 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>0711574848713</t>
+          <t>0711574849215</t>
         </is>
       </c>
       <c r="F1156" t="n">
-        <v>104.4</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>8808678161045</t>
+          <t>0711574848218</t>
         </is>
       </c>
       <c r="F1157" t="n">
-        <v>400.6</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>0753088845215</t>
+          <t>0711574848317</t>
         </is>
       </c>
       <c r="F1158" t="n">
-        <v>184.54</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>0753088854514</t>
+          <t>0711574848713</t>
         </is>
       </c>
       <c r="F1159" t="n">
-        <v>184.54</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>0753088994579</t>
+          <t>8808678161045</t>
         </is>
       </c>
       <c r="F1160" t="n">
-        <v>203.3</v>
+        <v>400.6</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>0753088208416</t>
+          <t>0753088845215</t>
         </is>
       </c>
       <c r="F1161" t="n">
-        <v>121.82</v>
+        <v>184.54</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>0753088262111</t>
+          <t>0753088854514</t>
         </is>
       </c>
       <c r="F1162" t="n">
-        <v>121.82</v>
+        <v>184.54</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>0753088305511</t>
+          <t>0753088994579</t>
         </is>
       </c>
       <c r="F1163" t="n">
@@ -11988,17 +11988,17 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>0753088306914</t>
+          <t>0753088208416</t>
         </is>
       </c>
       <c r="F1164" t="n">
-        <v>203.3</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>0753088124013</t>
+          <t>0753088262111</t>
         </is>
       </c>
       <c r="F1165" t="n">
@@ -12008,57 +12008,57 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>0753088224119</t>
+          <t>0753088305511</t>
         </is>
       </c>
       <c r="F1166" t="n">
-        <v>121.82</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>0707129301451</t>
+          <t>0753088306914</t>
         </is>
       </c>
       <c r="F1167" t="n">
-        <v>140.09</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>3700409811388</t>
+          <t>0753088124013</t>
         </is>
       </c>
       <c r="F1168" t="n">
-        <v>83.66</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>5060149622902</t>
+          <t>0753088224119</t>
         </is>
       </c>
       <c r="F1169" t="n">
-        <v>76.87</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>3700409812880</t>
+          <t>0707129301451</t>
         </is>
       </c>
       <c r="F1170" t="n">
-        <v>83.66</v>
+        <v>140.09</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>3700409815065</t>
+          <t>3700409811388</t>
         </is>
       </c>
       <c r="F1171" t="n">
@@ -12068,47 +12068,47 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>3770010277026</t>
+          <t>5060149622902</t>
         </is>
       </c>
       <c r="F1172" t="n">
-        <v>83.66</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>4009850024118</t>
+          <t>3700409812880</t>
         </is>
       </c>
       <c r="F1173" t="n">
-        <v>65.34</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>4009850024217</t>
+          <t>3700409815065</t>
         </is>
       </c>
       <c r="F1174" t="n">
-        <v>65.34</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>4260019715708</t>
+          <t>3770010277026</t>
         </is>
       </c>
       <c r="F1175" t="n">
-        <v>65.34</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>4260019715746</t>
+          <t>4009850024118</t>
         </is>
       </c>
       <c r="F1176" t="n">
@@ -12118,57 +12118,57 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>4260428070054</t>
+          <t>4009850024217</t>
         </is>
       </c>
       <c r="F1177" t="n">
-        <v>81.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>4260428070153</t>
+          <t>4260019715708</t>
         </is>
       </c>
       <c r="F1178" t="n">
-        <v>81.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>4260428070160</t>
+          <t>4260019715746</t>
         </is>
       </c>
       <c r="F1179" t="n">
-        <v>81.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>4260019715753</t>
+          <t>4260428070054</t>
         </is>
       </c>
       <c r="F1180" t="n">
-        <v>65.34</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>0753088300677</t>
+          <t>4260428070153</t>
         </is>
       </c>
       <c r="F1181" t="n">
-        <v>203.3</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>4260428070177</t>
+          <t>4260428070160</t>
         </is>
       </c>
       <c r="F1182" t="n">
@@ -12178,117 +12178,117 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>5060149620441</t>
+          <t>4260019715753</t>
         </is>
       </c>
       <c r="F1183" t="n">
-        <v>76.87</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>5060149620755</t>
+          <t>0753088300677</t>
         </is>
       </c>
       <c r="F1184" t="n">
-        <v>76.87</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>5060149620793</t>
+          <t>4260428070177</t>
         </is>
       </c>
       <c r="F1185" t="n">
-        <v>76.87</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>4260019715777</t>
+          <t>5060149620441</t>
         </is>
       </c>
       <c r="F1186" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>8808678161281</t>
+          <t>5060149620755</t>
         </is>
       </c>
       <c r="F1187" t="n">
-        <v>100.29</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>88086781612359</t>
+          <t>5060149620793</t>
         </is>
       </c>
       <c r="F1188" t="n">
-        <v>100.29</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>5060149620816</t>
+          <t>4260019715777</t>
         </is>
       </c>
       <c r="F1189" t="n">
-        <v>76.87</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>0753088270871</t>
+          <t>8808678161281</t>
         </is>
       </c>
       <c r="F1190" t="n">
-        <v>203.3</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>5060149622971</t>
+          <t>88086781612359</t>
         </is>
       </c>
       <c r="F1191" t="n">
-        <v>76.87</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>5060149622964</t>
+          <t>5060149620816</t>
         </is>
       </c>
       <c r="F1192" t="n">
-        <v>110.48</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>4260019715784</t>
+          <t>0753088270871</t>
         </is>
       </c>
       <c r="F1193" t="n">
-        <v>65.34</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>5060149620830</t>
+          <t>5060149622971</t>
         </is>
       </c>
       <c r="F1194" t="n">
@@ -12298,17 +12298,17 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>0753088876219</t>
+          <t>5060149622964</t>
         </is>
       </c>
       <c r="F1195" t="n">
-        <v>121.82</v>
+        <v>110.48</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>4260019715807</t>
+          <t>4260019715784</t>
         </is>
       </c>
       <c r="F1196" t="n">
@@ -12318,247 +12318,247 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>4260019715845</t>
+          <t>5060149620830</t>
         </is>
       </c>
       <c r="F1197" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>8808678160888</t>
+          <t>0753088876219</t>
         </is>
       </c>
       <c r="F1198" t="n">
-        <v>100.29</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>8808678161137</t>
+          <t>4260019715807</t>
         </is>
       </c>
       <c r="F1199" t="n">
-        <v>100.29</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>5060149620861</t>
+          <t>4260019715845</t>
         </is>
       </c>
       <c r="F1200" t="n">
-        <v>76.87</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>0753088904516</t>
+          <t>8808678160888</t>
         </is>
       </c>
       <c r="F1201" t="n">
-        <v>406.69</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>5060149620953</t>
+          <t>8808678161137</t>
         </is>
       </c>
       <c r="F1202" t="n">
-        <v>76.87</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>8808678160277</t>
+          <t>5060149620861</t>
         </is>
       </c>
       <c r="F1203" t="n">
-        <v>141.47</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>4260019715821</t>
+          <t>0753088904516</t>
         </is>
       </c>
       <c r="F1204" t="n">
-        <v>65.34</v>
+        <v>406.69</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>0753088232312</t>
+          <t>5060149620953</t>
         </is>
       </c>
       <c r="F1205" t="n">
-        <v>121.82</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>0753088236914</t>
+          <t>8808678160277</t>
         </is>
       </c>
       <c r="F1206" t="n">
-        <v>121.82</v>
+        <v>141.47</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>0753088903076</t>
+          <t>4260019715821</t>
         </is>
       </c>
       <c r="F1207" t="n">
-        <v>203.3</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>5060149622919</t>
+          <t>0753088232312</t>
         </is>
       </c>
       <c r="F1208" t="n">
-        <v>76.87</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>4260019715869</t>
+          <t>0753088236914</t>
         </is>
       </c>
       <c r="F1209" t="n">
-        <v>65.34</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>8809355974781</t>
+          <t>0753088903076</t>
         </is>
       </c>
       <c r="F1210" t="n">
-        <v>183.15</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>8808678161274</t>
+          <t>5060149622919</t>
         </is>
       </c>
       <c r="F1211" t="n">
-        <v>100.29</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>8803581787061</t>
+          <t>4260019715869</t>
         </is>
       </c>
       <c r="F1212" t="n">
-        <v>110.34</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>5060149622995</t>
+          <t>8809355974781</t>
         </is>
       </c>
       <c r="F1213" t="n">
-        <v>76.87</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>5060149622858</t>
+          <t>8808678161274</t>
         </is>
       </c>
       <c r="F1214" t="n">
-        <v>110.48</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>5060149621011</t>
+          <t>8803581787061</t>
         </is>
       </c>
       <c r="F1215" t="n">
-        <v>464.66</v>
+        <v>110.34</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>5060149621363</t>
+          <t>5060149622995</t>
         </is>
       </c>
       <c r="F1216" t="n">
-        <v>38.41</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>5060149621431</t>
+          <t>5060149622858</t>
         </is>
       </c>
       <c r="F1217" t="n">
-        <v>76.87</v>
+        <v>110.48</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>5060149621509</t>
+          <t>5060149621011</t>
         </is>
       </c>
       <c r="F1218" t="n">
-        <v>110.48</v>
+        <v>464.66</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>5060149621523</t>
+          <t>5060149621363</t>
         </is>
       </c>
       <c r="F1219" t="n">
-        <v>76.87</v>
+        <v>38.41</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>5060149621585</t>
+          <t>5060149621431</t>
         </is>
       </c>
       <c r="F1220" t="n">
-        <v>38.41</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>5060149621806</t>
+          <t>5060149621509</t>
         </is>
       </c>
       <c r="F1221" t="n">
@@ -12568,7 +12568,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>5060149621844</t>
+          <t>5060149621523</t>
         </is>
       </c>
       <c r="F1222" t="n">
@@ -12578,27 +12578,27 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>5060149621981</t>
+          <t>5060149621585</t>
         </is>
       </c>
       <c r="F1223" t="n">
-        <v>110.48</v>
+        <v>38.41</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>5060149622087</t>
+          <t>5060149621806</t>
         </is>
       </c>
       <c r="F1224" t="n">
-        <v>55.24</v>
+        <v>110.48</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>5060149622094</t>
+          <t>5060149621844</t>
         </is>
       </c>
       <c r="F1225" t="n">
@@ -12608,27 +12608,27 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>5060149622445</t>
+          <t>5060149621981</t>
         </is>
       </c>
       <c r="F1226" t="n">
-        <v>76.87</v>
+        <v>110.48</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>5060149622650</t>
+          <t>5060149622087</t>
         </is>
       </c>
       <c r="F1227" t="n">
-        <v>76.87</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>5060149622704</t>
+          <t>5060149622094</t>
         </is>
       </c>
       <c r="F1228" t="n">
@@ -12638,7 +12638,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>5060149622735</t>
+          <t>5060149622445</t>
         </is>
       </c>
       <c r="F1229" t="n">
@@ -12648,7 +12648,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>5060149622742</t>
+          <t>5060149622650</t>
         </is>
       </c>
       <c r="F1230" t="n">
@@ -12658,7 +12658,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>5060149622759</t>
+          <t>5060149622704</t>
         </is>
       </c>
       <c r="F1231" t="n">
@@ -12668,7 +12668,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>5060149622766</t>
+          <t>5060149622735</t>
         </is>
       </c>
       <c r="F1232" t="n">
@@ -12678,7 +12678,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>5060149622841</t>
+          <t>5060149622742</t>
         </is>
       </c>
       <c r="F1233" t="n">
@@ -12688,7 +12688,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>5060149622872</t>
+          <t>5060149622759</t>
         </is>
       </c>
       <c r="F1234" t="n">
@@ -12698,7 +12698,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>5060149622889</t>
+          <t>5060149622766</t>
         </is>
       </c>
       <c r="F1235" t="n">
@@ -12708,7 +12708,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>5060149622896</t>
+          <t>5060149622841</t>
         </is>
       </c>
       <c r="F1236" t="n">
@@ -12718,7 +12718,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>5060149622933</t>
+          <t>5060149622872</t>
         </is>
       </c>
       <c r="F1237" t="n">
@@ -12728,7 +12728,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>5060149622940</t>
+          <t>5060149622889</t>
         </is>
       </c>
       <c r="F1238" t="n">
@@ -12738,57 +12738,57 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>8803581787023</t>
+          <t>5060149622896</t>
         </is>
       </c>
       <c r="F1239" t="n">
-        <v>110.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>8808678160161</t>
+          <t>5060149622933</t>
         </is>
       </c>
       <c r="F1240" t="n">
-        <v>240.37</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>8808678160468</t>
+          <t>5060149622940</t>
         </is>
       </c>
       <c r="F1241" t="n">
-        <v>100.29</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>8808678160642</t>
+          <t>8803581787023</t>
         </is>
       </c>
       <c r="F1242" t="n">
-        <v>183.15</v>
+        <v>110.34</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>8808678160659</t>
+          <t>8808678160161</t>
         </is>
       </c>
       <c r="F1243" t="n">
-        <v>100.29</v>
+        <v>240.37</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>8808678160840</t>
+          <t>8808678160468</t>
         </is>
       </c>
       <c r="F1244" t="n">
@@ -12798,17 +12798,17 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>8808678160895</t>
+          <t>8808678160642</t>
         </is>
       </c>
       <c r="F1245" t="n">
-        <v>100.29</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>8808678161076</t>
+          <t>8808678160659</t>
         </is>
       </c>
       <c r="F1246" t="n">
@@ -12818,27 +12818,27 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>8808678161090</t>
+          <t>8808678160840</t>
         </is>
       </c>
       <c r="F1247" t="n">
-        <v>141.47</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>8808678161106</t>
+          <t>8808678160895</t>
         </is>
       </c>
       <c r="F1248" t="n">
-        <v>141.47</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>8808678161120</t>
+          <t>8808678161076</t>
         </is>
       </c>
       <c r="F1249" t="n">
@@ -12848,27 +12848,27 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>8808678161199</t>
+          <t>8808678161090</t>
         </is>
       </c>
       <c r="F1250" t="n">
-        <v>100.29</v>
+        <v>141.47</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>8808678161205</t>
+          <t>8808678161106</t>
         </is>
       </c>
       <c r="F1251" t="n">
-        <v>100.29</v>
+        <v>141.47</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>8808678161212</t>
+          <t>8808678161120</t>
         </is>
       </c>
       <c r="F1252" t="n">
@@ -12878,7 +12878,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>8808678161229</t>
+          <t>8808678161199</t>
         </is>
       </c>
       <c r="F1253" t="n">
@@ -12888,7 +12888,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>8808678161298</t>
+          <t>8808678161205</t>
         </is>
       </c>
       <c r="F1254" t="n">
@@ -12898,7 +12898,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>8808678161359</t>
+          <t>8808678161212</t>
         </is>
       </c>
       <c r="F1255" t="n">
@@ -12908,7 +12908,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>8808678161373</t>
+          <t>8808678161229</t>
         </is>
       </c>
       <c r="F1256" t="n">
@@ -12918,87 +12918,87 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>8809300904085</t>
+          <t>8808678161298</t>
         </is>
       </c>
       <c r="F1257" t="n">
-        <v>183.15</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>8809355974804</t>
+          <t>8808678161359</t>
         </is>
       </c>
       <c r="F1258" t="n">
-        <v>183.15</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>0753088004216</t>
+          <t>8808678161373</t>
         </is>
       </c>
       <c r="F1259" t="n">
-        <v>121.82</v>
+        <v>100.29</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>3700409813719</t>
+          <t>8809300904085</t>
         </is>
       </c>
       <c r="F1260" t="n">
-        <v>83.66</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>3700409813726</t>
+          <t>8809355974804</t>
         </is>
       </c>
       <c r="F1261" t="n">
-        <v>83.66</v>
+        <v>183.15</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>4260019715791</t>
+          <t>0753088004216</t>
         </is>
       </c>
       <c r="F1262" t="n">
-        <v>65.34</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>0753088606571</t>
+          <t>3700409813719</t>
         </is>
       </c>
       <c r="F1263" t="n">
-        <v>560.34</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>4260019715838</t>
+          <t>3700409813726</t>
         </is>
       </c>
       <c r="F1264" t="n">
-        <v>116.67</v>
+        <v>83.66</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>4260019715883</t>
+          <t>4260019715791</t>
         </is>
       </c>
       <c r="F1265" t="n">
@@ -13008,57 +13008,57 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>4260019715920</t>
+          <t>0753088606571</t>
         </is>
       </c>
       <c r="F1266" t="n">
-        <v>65.34</v>
+        <v>560.34</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>0753088012112</t>
+          <t>4260019715838</t>
         </is>
       </c>
       <c r="F1267" t="n">
-        <v>243.64</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>0711574864713</t>
+          <t>4260019715883</t>
         </is>
       </c>
       <c r="F1268" t="n">
-        <v>87.47</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>0711574837410</t>
+          <t>4260019715920</t>
         </is>
       </c>
       <c r="F1269" t="n">
-        <v>87.47</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>0711574837113</t>
+          <t>0753088012112</t>
         </is>
       </c>
       <c r="F1270" t="n">
-        <v>87.47</v>
+        <v>243.64</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>0711574867110</t>
+          <t>0711574864713</t>
         </is>
       </c>
       <c r="F1271" t="n">
@@ -13068,7 +13068,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>0711574874712</t>
+          <t>0711574837410</t>
         </is>
       </c>
       <c r="F1272" t="n">
@@ -13078,107 +13078,107 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>0711574874118</t>
+          <t>0711574837113</t>
         </is>
       </c>
       <c r="F1273" t="n">
-        <v>104.4</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>5060149623046</t>
+          <t>0711574867110</t>
         </is>
       </c>
       <c r="F1274" t="n">
-        <v>76.87</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>6969696969699</t>
+          <t>0711574874712</t>
         </is>
       </c>
       <c r="F1275" t="n">
-        <v>76.87</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>4260019716002</t>
+          <t>0711574874118</t>
         </is>
       </c>
       <c r="F1276" t="n">
-        <v>65.34</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>4260019715913</t>
+          <t>5060149623046</t>
         </is>
       </c>
       <c r="F1277" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>0753088250712</t>
+          <t>6969696969699</t>
         </is>
       </c>
       <c r="F1278" t="n">
-        <v>121.82</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>0753088262012</t>
+          <t>4260019716002</t>
         </is>
       </c>
       <c r="F1279" t="n">
-        <v>121.82</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>5060149623107</t>
+          <t>4260019715913</t>
         </is>
       </c>
       <c r="F1280" t="n">
-        <v>76.87</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>4260019715906</t>
+          <t>0753088250712</t>
         </is>
       </c>
       <c r="F1281" t="n">
-        <v>65.34</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>4260019715968</t>
+          <t>0753088262012</t>
         </is>
       </c>
       <c r="F1282" t="n">
-        <v>65.34</v>
+        <v>121.82</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>5060149622926</t>
+          <t>5060149623107</t>
         </is>
       </c>
       <c r="F1283" t="n">
@@ -13188,4451 +13188,41 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>5060149622988</t>
+          <t>4260019715906</t>
         </is>
       </c>
       <c r="F1284" t="n">
-        <v>76.87</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>4260019715838</t>
+          <t>4260019715968</t>
         </is>
       </c>
       <c r="F1285" t="n">
-        <v>116.67</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>4260019715883</t>
+          <t>5060149622926</t>
         </is>
       </c>
       <c r="F1286" t="n">
-        <v>65.34</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>4260019715920</t>
+          <t>5060149622988</t>
         </is>
       </c>
       <c r="F1287" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>0753088012112</t>
-        </is>
-      </c>
-      <c r="F1288" t="n">
-        <v>243.64</v>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>0711574864713</t>
-        </is>
-      </c>
-      <c r="F1289" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>0711574837410</t>
-        </is>
-      </c>
-      <c r="F1290" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>0711574837113</t>
-        </is>
-      </c>
-      <c r="F1291" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>0711574867110</t>
-        </is>
-      </c>
-      <c r="F1292" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>0711574874712</t>
-        </is>
-      </c>
-      <c r="F1293" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>0711574874118</t>
-        </is>
-      </c>
-      <c r="F1294" t="n">
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>5060149623046</t>
-        </is>
-      </c>
-      <c r="F1295" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>6969696969699</t>
-        </is>
-      </c>
-      <c r="F1296" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>4260019715791</t>
-        </is>
-      </c>
-      <c r="F1297" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>0753088904516</t>
-        </is>
-      </c>
-      <c r="F1298" t="n">
-        <v>406.69</v>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>0753088606571</t>
-        </is>
-      </c>
-      <c r="F1299" t="n">
-        <v>560.34</v>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>4260019712929</t>
-        </is>
-      </c>
-      <c r="F1300" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>4260019715326</t>
-        </is>
-      </c>
-      <c r="F1301" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>4260019713186</t>
-        </is>
-      </c>
-      <c r="F1302" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>0753088700118</t>
-        </is>
-      </c>
-      <c r="F1303" t="n">
-        <v>132.76</v>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>0753088001437</t>
-        </is>
-      </c>
-      <c r="F1304" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>0753088002670</t>
-        </is>
-      </c>
-      <c r="F1305" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>0753088002717</t>
-        </is>
-      </c>
-      <c r="F1306" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>0753088202919</t>
-        </is>
-      </c>
-      <c r="F1307" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>0753088003615</t>
-        </is>
-      </c>
-      <c r="F1308" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>0753088036415</t>
-        </is>
-      </c>
-      <c r="F1309" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>0753088004117</t>
-        </is>
-      </c>
-      <c r="F1310" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>0753088004216</t>
-        </is>
-      </c>
-      <c r="F1311" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>0753088004636</t>
-        </is>
-      </c>
-      <c r="F1312" t="n">
-        <v>156.12</v>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>0753088048012</t>
-        </is>
-      </c>
-      <c r="F1313" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>0753088005114</t>
-        </is>
-      </c>
-      <c r="F1314" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>0753088544576</t>
-        </is>
-      </c>
-      <c r="F1315" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>0753088005619</t>
-        </is>
-      </c>
-      <c r="F1316" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>0753088005817</t>
-        </is>
-      </c>
-      <c r="F1317" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>0753088016318</t>
-        </is>
-      </c>
-      <c r="F1318" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>0753088016417</t>
-        </is>
-      </c>
-      <c r="F1319" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>0753088016516</t>
-        </is>
-      </c>
-      <c r="F1320" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>0753088006517</t>
-        </is>
-      </c>
-      <c r="F1321" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>0753088016714</t>
-        </is>
-      </c>
-      <c r="F1322" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>0753088674570</t>
-        </is>
-      </c>
-      <c r="F1323" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>0753088016813</t>
-        </is>
-      </c>
-      <c r="F1324" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>0753088007019</t>
-        </is>
-      </c>
-      <c r="F1325" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>0753088007118</t>
-        </is>
-      </c>
-      <c r="F1326" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>0753088007217</t>
-        </is>
-      </c>
-      <c r="F1327" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>0753088007675</t>
-        </is>
-      </c>
-      <c r="F1328" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>0753088007873</t>
-        </is>
-      </c>
-      <c r="F1329" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>0753088008177</t>
-        </is>
-      </c>
-      <c r="F1330" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>0753088008313</t>
-        </is>
-      </c>
-      <c r="F1331" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>0753088008375</t>
-        </is>
-      </c>
-      <c r="F1332" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>0753088008412</t>
-        </is>
-      </c>
-      <c r="F1333" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>0753088009013</t>
-        </is>
-      </c>
-      <c r="F1334" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>0753088964510</t>
-        </is>
-      </c>
-      <c r="F1335" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>0753088099014</t>
-        </is>
-      </c>
-      <c r="F1336" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>0753088994579</t>
-        </is>
-      </c>
-      <c r="F1337" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>0753088010118</t>
-        </is>
-      </c>
-      <c r="F1338" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>0753088014574</t>
-        </is>
-      </c>
-      <c r="F1339" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>0753088010514</t>
-        </is>
-      </c>
-      <c r="F1340" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>0753088010712</t>
-        </is>
-      </c>
-      <c r="F1341" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>0753088010811</t>
-        </is>
-      </c>
-      <c r="F1342" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>0753088010910</t>
-        </is>
-      </c>
-      <c r="F1343" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>0753088011313</t>
-        </is>
-      </c>
-      <c r="F1344" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>0753088011610</t>
-        </is>
-      </c>
-      <c r="F1345" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>0753088000614</t>
-        </is>
-      </c>
-      <c r="F1346" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>0753088119415</t>
-        </is>
-      </c>
-      <c r="F1347" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>0753088155819</t>
-        </is>
-      </c>
-      <c r="F1348" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>0753088190315</t>
-        </is>
-      </c>
-      <c r="F1349" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>0753088193415</t>
-        </is>
-      </c>
-      <c r="F1350" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>0753088198410</t>
-        </is>
-      </c>
-      <c r="F1351" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>0753088220111</t>
-        </is>
-      </c>
-      <c r="F1352" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>0753088222511</t>
-        </is>
-      </c>
-      <c r="F1353" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>0753088224119</t>
-        </is>
-      </c>
-      <c r="F1354" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>0753088229817</t>
-        </is>
-      </c>
-      <c r="F1355" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>0753088231414</t>
-        </is>
-      </c>
-      <c r="F1356" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>0753088232312</t>
-        </is>
-      </c>
-      <c r="F1357" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>0753088233616</t>
-        </is>
-      </c>
-      <c r="F1358" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>0753088234118</t>
-        </is>
-      </c>
-      <c r="F1359" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>0753088239816</t>
-        </is>
-      </c>
-      <c r="F1360" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>0753088240010</t>
-        </is>
-      </c>
-      <c r="F1361" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>0753088242113</t>
-        </is>
-      </c>
-      <c r="F1362" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>0753088243677</t>
-        </is>
-      </c>
-      <c r="F1363" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>0753088244612</t>
-        </is>
-      </c>
-      <c r="F1364" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>0753088244674</t>
-        </is>
-      </c>
-      <c r="F1365" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>0753088247118</t>
-        </is>
-      </c>
-      <c r="F1366" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>0753088714511</t>
-        </is>
-      </c>
-      <c r="F1367" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>0753088255915</t>
-        </is>
-      </c>
-      <c r="F1368" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
-        <is>
-          <t>0753088262111</t>
-        </is>
-      </c>
-      <c r="F1369" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>0753088026515</t>
-        </is>
-      </c>
-      <c r="F1370" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>0753088270871</t>
-        </is>
-      </c>
-      <c r="F1371" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>0753088270970</t>
-        </is>
-      </c>
-      <c r="F1372" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>0753088279577</t>
-        </is>
-      </c>
-      <c r="F1373" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>0753088304118</t>
-        </is>
-      </c>
-      <c r="F1374" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>0753088441813</t>
-        </is>
-      </c>
-      <c r="F1375" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>0753088441875</t>
-        </is>
-      </c>
-      <c r="F1376" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>0753088605512</t>
-        </is>
-      </c>
-      <c r="F1377" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>0753088609411</t>
-        </is>
-      </c>
-      <c r="F1378" t="n">
-        <v>203.35</v>
-      </c>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>0753088610417</t>
-        </is>
-      </c>
-      <c r="F1379" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>0753088610912</t>
-        </is>
-      </c>
-      <c r="F1380" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>0753088612312</t>
-        </is>
-      </c>
-      <c r="F1381" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>0753088612411</t>
-        </is>
-      </c>
-      <c r="F1382" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>0753088710018</t>
-        </is>
-      </c>
-      <c r="F1383" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>0753088727818</t>
-        </is>
-      </c>
-      <c r="F1384" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>0753088812712</t>
-        </is>
-      </c>
-      <c r="F1385" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>0753088819711</t>
-        </is>
-      </c>
-      <c r="F1386" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>0753088824319</t>
-        </is>
-      </c>
-      <c r="F1387" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>0753088843211</t>
-        </is>
-      </c>
-      <c r="F1388" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>0753088845413</t>
-        </is>
-      </c>
-      <c r="F1389" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>0753088003516</t>
-        </is>
-      </c>
-      <c r="F1390" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>0753088849718</t>
-        </is>
-      </c>
-      <c r="F1391" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>0753088854514</t>
-        </is>
-      </c>
-      <c r="F1392" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>0753088872211</t>
-        </is>
-      </c>
-      <c r="F1393" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>0753088876219</t>
-        </is>
-      </c>
-      <c r="F1394" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>0753088336973</t>
-        </is>
-      </c>
-      <c r="F1395" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>0753088500770</t>
-        </is>
-      </c>
-      <c r="F1396" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>0753088501173</t>
-        </is>
-      </c>
-      <c r="F1397" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>0753088402876</t>
-        </is>
-      </c>
-      <c r="F1398" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>0753088403415</t>
-        </is>
-      </c>
-      <c r="F1399" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>0753088403811</t>
-        </is>
-      </c>
-      <c r="F1400" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>0753088405112</t>
-        </is>
-      </c>
-      <c r="F1401" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>0753088408670</t>
-        </is>
-      </c>
-      <c r="F1402" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>0753088411212</t>
-        </is>
-      </c>
-      <c r="F1403" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>5060149620151</t>
-        </is>
-      </c>
-      <c r="F1404" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>5060149621318</t>
-        </is>
-      </c>
-      <c r="F1405" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>5060149622131</t>
-        </is>
-      </c>
-      <c r="F1406" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>5060149620045</t>
-        </is>
-      </c>
-      <c r="F1407" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>5060149622513</t>
-        </is>
-      </c>
-      <c r="F1408" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>5060149620847</t>
-        </is>
-      </c>
-      <c r="F1409" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>5060149622254</t>
-        </is>
-      </c>
-      <c r="F1410" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>5060149622940</t>
-        </is>
-      </c>
-      <c r="F1411" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>5060149620830</t>
-        </is>
-      </c>
-      <c r="F1412" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>5060149622056</t>
-        </is>
-      </c>
-      <c r="F1413" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>5060149622155</t>
-        </is>
-      </c>
-      <c r="F1414" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>5060149621943</t>
-        </is>
-      </c>
-      <c r="F1415" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>5060149621721</t>
-        </is>
-      </c>
-      <c r="F1416" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>5060149620298</t>
-        </is>
-      </c>
-      <c r="F1417" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>5060149621165</t>
-        </is>
-      </c>
-      <c r="F1418" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>5060149620755</t>
-        </is>
-      </c>
-      <c r="F1419" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>5060149621387</t>
-        </is>
-      </c>
-      <c r="F1420" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>5060149622964</t>
-        </is>
-      </c>
-      <c r="F1421" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>5060149621578</t>
-        </is>
-      </c>
-      <c r="F1422" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>5060149620281</t>
-        </is>
-      </c>
-      <c r="F1423" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>5060149621653</t>
-        </is>
-      </c>
-      <c r="F1424" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>5060149621981</t>
-        </is>
-      </c>
-      <c r="F1425" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>5060149622292</t>
-        </is>
-      </c>
-      <c r="F1426" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>5060149621127</t>
-        </is>
-      </c>
-      <c r="F1427" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>5060149620939</t>
-        </is>
-      </c>
-      <c r="F1428" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>3700409812347</t>
-        </is>
-      </c>
-      <c r="F1429" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>3700409813719</t>
-        </is>
-      </c>
-      <c r="F1430" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>3700409813726</t>
-        </is>
-      </c>
-      <c r="F1431" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>3700409815065</t>
-        </is>
-      </c>
-      <c r="F1432" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>4260019715838</t>
-        </is>
-      </c>
-      <c r="F1433" t="n">
-        <v>116.67</v>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>4260019715883</t>
-        </is>
-      </c>
-      <c r="F1434" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>4260019715920</t>
-        </is>
-      </c>
-      <c r="F1435" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>0753088012112</t>
-        </is>
-      </c>
-      <c r="F1436" t="n">
-        <v>243.64</v>
-      </c>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>0711574864713</t>
-        </is>
-      </c>
-      <c r="F1437" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>0711574837410</t>
-        </is>
-      </c>
-      <c r="F1438" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>0711574837113</t>
-        </is>
-      </c>
-      <c r="F1439" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>0711574867110</t>
-        </is>
-      </c>
-      <c r="F1440" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>0711574874712</t>
-        </is>
-      </c>
-      <c r="F1441" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>0711574874118</t>
-        </is>
-      </c>
-      <c r="F1442" t="n">
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>5060149623046</t>
-        </is>
-      </c>
-      <c r="F1443" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>6969696969699</t>
-        </is>
-      </c>
-      <c r="F1444" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>4260019715791</t>
-        </is>
-      </c>
-      <c r="F1445" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>0753088904516</t>
-        </is>
-      </c>
-      <c r="F1446" t="n">
-        <v>406.69</v>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>0753088606571</t>
-        </is>
-      </c>
-      <c r="F1447" t="n">
-        <v>560.34</v>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>4260019712929</t>
-        </is>
-      </c>
-      <c r="F1448" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>4260019715326</t>
-        </is>
-      </c>
-      <c r="F1449" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>4260019713186</t>
-        </is>
-      </c>
-      <c r="F1450" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>0753088700118</t>
-        </is>
-      </c>
-      <c r="F1451" t="n">
-        <v>132.76</v>
-      </c>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>0753088001437</t>
-        </is>
-      </c>
-      <c r="F1452" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>0753088002670</t>
-        </is>
-      </c>
-      <c r="F1453" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>0753088002717</t>
-        </is>
-      </c>
-      <c r="F1454" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>0753088202919</t>
-        </is>
-      </c>
-      <c r="F1455" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>0753088003615</t>
-        </is>
-      </c>
-      <c r="F1456" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>0753088036415</t>
-        </is>
-      </c>
-      <c r="F1457" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>0753088004117</t>
-        </is>
-      </c>
-      <c r="F1458" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>0753088004216</t>
-        </is>
-      </c>
-      <c r="F1459" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>0753088004636</t>
-        </is>
-      </c>
-      <c r="F1460" t="n">
-        <v>156.12</v>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>0753088048012</t>
-        </is>
-      </c>
-      <c r="F1461" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>0753088005114</t>
-        </is>
-      </c>
-      <c r="F1462" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>0753088544576</t>
-        </is>
-      </c>
-      <c r="F1463" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>0753088005619</t>
-        </is>
-      </c>
-      <c r="F1464" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>0753088005817</t>
-        </is>
-      </c>
-      <c r="F1465" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>0753088016318</t>
-        </is>
-      </c>
-      <c r="F1466" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>0753088016417</t>
-        </is>
-      </c>
-      <c r="F1467" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>0753088016516</t>
-        </is>
-      </c>
-      <c r="F1468" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>0753088006517</t>
-        </is>
-      </c>
-      <c r="F1469" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>0753088016714</t>
-        </is>
-      </c>
-      <c r="F1470" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>0753088674570</t>
-        </is>
-      </c>
-      <c r="F1471" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>0753088016813</t>
-        </is>
-      </c>
-      <c r="F1472" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>0753088007019</t>
-        </is>
-      </c>
-      <c r="F1473" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>0753088007118</t>
-        </is>
-      </c>
-      <c r="F1474" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>0753088007217</t>
-        </is>
-      </c>
-      <c r="F1475" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>0753088007675</t>
-        </is>
-      </c>
-      <c r="F1476" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>0753088007873</t>
-        </is>
-      </c>
-      <c r="F1477" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>0753088008177</t>
-        </is>
-      </c>
-      <c r="F1478" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>0753088008313</t>
-        </is>
-      </c>
-      <c r="F1479" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>0753088008375</t>
-        </is>
-      </c>
-      <c r="F1480" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>0753088008412</t>
-        </is>
-      </c>
-      <c r="F1481" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>0753088009013</t>
-        </is>
-      </c>
-      <c r="F1482" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>0753088964510</t>
-        </is>
-      </c>
-      <c r="F1483" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>0753088099014</t>
-        </is>
-      </c>
-      <c r="F1484" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>0753088994579</t>
-        </is>
-      </c>
-      <c r="F1485" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>0753088010118</t>
-        </is>
-      </c>
-      <c r="F1486" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>0753088014574</t>
-        </is>
-      </c>
-      <c r="F1487" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>0753088010514</t>
-        </is>
-      </c>
-      <c r="F1488" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>0753088010712</t>
-        </is>
-      </c>
-      <c r="F1489" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>0753088010811</t>
-        </is>
-      </c>
-      <c r="F1490" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>0753088010910</t>
-        </is>
-      </c>
-      <c r="F1491" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>0753088011313</t>
-        </is>
-      </c>
-      <c r="F1492" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>0753088011610</t>
-        </is>
-      </c>
-      <c r="F1493" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>0753088000614</t>
-        </is>
-      </c>
-      <c r="F1494" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>0753088119415</t>
-        </is>
-      </c>
-      <c r="F1495" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>0753088155819</t>
-        </is>
-      </c>
-      <c r="F1496" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>0753088190315</t>
-        </is>
-      </c>
-      <c r="F1497" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>0753088193415</t>
-        </is>
-      </c>
-      <c r="F1498" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>0753088198410</t>
-        </is>
-      </c>
-      <c r="F1499" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>0753088220111</t>
-        </is>
-      </c>
-      <c r="F1500" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>0753088222511</t>
-        </is>
-      </c>
-      <c r="F1501" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>0753088224119</t>
-        </is>
-      </c>
-      <c r="F1502" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>0753088229817</t>
-        </is>
-      </c>
-      <c r="F1503" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>0753088231414</t>
-        </is>
-      </c>
-      <c r="F1504" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>0753088232312</t>
-        </is>
-      </c>
-      <c r="F1505" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>0753088233616</t>
-        </is>
-      </c>
-      <c r="F1506" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>0753088234118</t>
-        </is>
-      </c>
-      <c r="F1507" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>0753088239816</t>
-        </is>
-      </c>
-      <c r="F1508" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>0753088240010</t>
-        </is>
-      </c>
-      <c r="F1509" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>0753088242113</t>
-        </is>
-      </c>
-      <c r="F1510" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>0753088243677</t>
-        </is>
-      </c>
-      <c r="F1511" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>0753088244612</t>
-        </is>
-      </c>
-      <c r="F1512" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>0753088244674</t>
-        </is>
-      </c>
-      <c r="F1513" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>0753088247118</t>
-        </is>
-      </c>
-      <c r="F1514" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>0753088714511</t>
-        </is>
-      </c>
-      <c r="F1515" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>0753088255915</t>
-        </is>
-      </c>
-      <c r="F1516" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>0753088262111</t>
-        </is>
-      </c>
-      <c r="F1517" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>0753088026515</t>
-        </is>
-      </c>
-      <c r="F1518" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>0753088270871</t>
-        </is>
-      </c>
-      <c r="F1519" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>0753088270970</t>
-        </is>
-      </c>
-      <c r="F1520" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>0753088279577</t>
-        </is>
-      </c>
-      <c r="F1521" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>0753088304118</t>
-        </is>
-      </c>
-      <c r="F1522" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>0753088441813</t>
-        </is>
-      </c>
-      <c r="F1523" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>0753088441875</t>
-        </is>
-      </c>
-      <c r="F1524" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>0753088605512</t>
-        </is>
-      </c>
-      <c r="F1525" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>0753088609411</t>
-        </is>
-      </c>
-      <c r="F1526" t="n">
-        <v>203.35</v>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>0753088610417</t>
-        </is>
-      </c>
-      <c r="F1527" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>0753088610912</t>
-        </is>
-      </c>
-      <c r="F1528" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>0753088612312</t>
-        </is>
-      </c>
-      <c r="F1529" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>0753088612411</t>
-        </is>
-      </c>
-      <c r="F1530" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>0753088710018</t>
-        </is>
-      </c>
-      <c r="F1531" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>0753088727818</t>
-        </is>
-      </c>
-      <c r="F1532" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>0753088812712</t>
-        </is>
-      </c>
-      <c r="F1533" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>0753088819711</t>
-        </is>
-      </c>
-      <c r="F1534" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>0753088824319</t>
-        </is>
-      </c>
-      <c r="F1535" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>0753088843211</t>
-        </is>
-      </c>
-      <c r="F1536" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>0753088845413</t>
-        </is>
-      </c>
-      <c r="F1537" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>0753088003516</t>
-        </is>
-      </c>
-      <c r="F1538" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>0753088849718</t>
-        </is>
-      </c>
-      <c r="F1539" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>0753088854514</t>
-        </is>
-      </c>
-      <c r="F1540" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>0753088872211</t>
-        </is>
-      </c>
-      <c r="F1541" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>0753088876219</t>
-        </is>
-      </c>
-      <c r="F1542" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>0753088336973</t>
-        </is>
-      </c>
-      <c r="F1543" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>0753088500770</t>
-        </is>
-      </c>
-      <c r="F1544" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>0753088501173</t>
-        </is>
-      </c>
-      <c r="F1545" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>0753088402876</t>
-        </is>
-      </c>
-      <c r="F1546" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>0753088403415</t>
-        </is>
-      </c>
-      <c r="F1547" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>0753088403811</t>
-        </is>
-      </c>
-      <c r="F1548" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>0753088405112</t>
-        </is>
-      </c>
-      <c r="F1549" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>0753088408670</t>
-        </is>
-      </c>
-      <c r="F1550" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1551">
-      <c r="A1551" t="inlineStr">
-        <is>
-          <t>0753088411212</t>
-        </is>
-      </c>
-      <c r="F1551" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1552">
-      <c r="A1552" t="inlineStr">
-        <is>
-          <t>5060149620151</t>
-        </is>
-      </c>
-      <c r="F1552" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1553">
-      <c r="A1553" t="inlineStr">
-        <is>
-          <t>5060149621318</t>
-        </is>
-      </c>
-      <c r="F1553" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1554">
-      <c r="A1554" t="inlineStr">
-        <is>
-          <t>5060149622131</t>
-        </is>
-      </c>
-      <c r="F1554" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1555">
-      <c r="A1555" t="inlineStr">
-        <is>
-          <t>5060149620045</t>
-        </is>
-      </c>
-      <c r="F1555" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1556">
-      <c r="A1556" t="inlineStr">
-        <is>
-          <t>5060149622513</t>
-        </is>
-      </c>
-      <c r="F1556" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" t="inlineStr">
-        <is>
-          <t>5060149620847</t>
-        </is>
-      </c>
-      <c r="F1557" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" t="inlineStr">
-        <is>
-          <t>5060149622254</t>
-        </is>
-      </c>
-      <c r="F1558" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" t="inlineStr">
-        <is>
-          <t>5060149622940</t>
-        </is>
-      </c>
-      <c r="F1559" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" t="inlineStr">
-        <is>
-          <t>5060149620830</t>
-        </is>
-      </c>
-      <c r="F1560" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1561">
-      <c r="A1561" t="inlineStr">
-        <is>
-          <t>5060149622056</t>
-        </is>
-      </c>
-      <c r="F1561" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" t="inlineStr">
-        <is>
-          <t>5060149622155</t>
-        </is>
-      </c>
-      <c r="F1562" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" t="inlineStr">
-        <is>
-          <t>5060149621943</t>
-        </is>
-      </c>
-      <c r="F1563" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" t="inlineStr">
-        <is>
-          <t>5060149621721</t>
-        </is>
-      </c>
-      <c r="F1564" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>5060149620298</t>
-        </is>
-      </c>
-      <c r="F1565" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1566">
-      <c r="A1566" t="inlineStr">
-        <is>
-          <t>5060149621165</t>
-        </is>
-      </c>
-      <c r="F1566" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1567">
-      <c r="A1567" t="inlineStr">
-        <is>
-          <t>5060149620755</t>
-        </is>
-      </c>
-      <c r="F1567" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>5060149621387</t>
-        </is>
-      </c>
-      <c r="F1568" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1569">
-      <c r="A1569" t="inlineStr">
-        <is>
-          <t>5060149622964</t>
-        </is>
-      </c>
-      <c r="F1569" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1570">
-      <c r="A1570" t="inlineStr">
-        <is>
-          <t>5060149621578</t>
-        </is>
-      </c>
-      <c r="F1570" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1571">
-      <c r="A1571" t="inlineStr">
-        <is>
-          <t>5060149620281</t>
-        </is>
-      </c>
-      <c r="F1571" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1572">
-      <c r="A1572" t="inlineStr">
-        <is>
-          <t>5060149621653</t>
-        </is>
-      </c>
-      <c r="F1572" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1573">
-      <c r="A1573" t="inlineStr">
-        <is>
-          <t>5060149621981</t>
-        </is>
-      </c>
-      <c r="F1573" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="inlineStr">
-        <is>
-          <t>5060149622292</t>
-        </is>
-      </c>
-      <c r="F1574" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1575">
-      <c r="A1575" t="inlineStr">
-        <is>
-          <t>5060149621127</t>
-        </is>
-      </c>
-      <c r="F1575" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1576">
-      <c r="A1576" t="inlineStr">
-        <is>
-          <t>5060149620939</t>
-        </is>
-      </c>
-      <c r="F1576" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1577">
-      <c r="A1577" t="inlineStr">
-        <is>
-          <t>3700409812347</t>
-        </is>
-      </c>
-      <c r="F1577" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1578">
-      <c r="A1578" t="inlineStr">
-        <is>
-          <t>3700409813719</t>
-        </is>
-      </c>
-      <c r="F1578" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1579">
-      <c r="A1579" t="inlineStr">
-        <is>
-          <t>3700409813726</t>
-        </is>
-      </c>
-      <c r="F1579" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" t="inlineStr">
-        <is>
-          <t>3700409815065</t>
-        </is>
-      </c>
-      <c r="F1580" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" t="inlineStr">
-        <is>
-          <t>4260019715838</t>
-        </is>
-      </c>
-      <c r="F1581" t="n">
-        <v>116.67</v>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" t="inlineStr">
-        <is>
-          <t>4260019715883</t>
-        </is>
-      </c>
-      <c r="F1582" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" t="inlineStr">
-        <is>
-          <t>4260019715920</t>
-        </is>
-      </c>
-      <c r="F1583" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1584">
-      <c r="A1584" t="inlineStr">
-        <is>
-          <t>0753088012112</t>
-        </is>
-      </c>
-      <c r="F1584" t="n">
-        <v>243.64</v>
-      </c>
-    </row>
-    <row r="1585">
-      <c r="A1585" t="inlineStr">
-        <is>
-          <t>0711574864713</t>
-        </is>
-      </c>
-      <c r="F1585" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1586">
-      <c r="A1586" t="inlineStr">
-        <is>
-          <t>0711574837410</t>
-        </is>
-      </c>
-      <c r="F1586" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1587">
-      <c r="A1587" t="inlineStr">
-        <is>
-          <t>0711574837113</t>
-        </is>
-      </c>
-      <c r="F1587" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1588">
-      <c r="A1588" t="inlineStr">
-        <is>
-          <t>0711574867110</t>
-        </is>
-      </c>
-      <c r="F1588" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1589">
-      <c r="A1589" t="inlineStr">
-        <is>
-          <t>0711574874712</t>
-        </is>
-      </c>
-      <c r="F1589" t="n">
-        <v>87.47</v>
-      </c>
-    </row>
-    <row r="1590">
-      <c r="A1590" t="inlineStr">
-        <is>
-          <t>0711574874118</t>
-        </is>
-      </c>
-      <c r="F1590" t="n">
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="1591">
-      <c r="A1591" t="inlineStr">
-        <is>
-          <t>5060149623046</t>
-        </is>
-      </c>
-      <c r="F1591" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>6969696969699</t>
-        </is>
-      </c>
-      <c r="F1592" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>4260019715791</t>
-        </is>
-      </c>
-      <c r="F1593" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>0753088904516</t>
-        </is>
-      </c>
-      <c r="F1594" t="n">
-        <v>406.69</v>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>0753088606571</t>
-        </is>
-      </c>
-      <c r="F1595" t="n">
-        <v>560.34</v>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>4260019712929</t>
-        </is>
-      </c>
-      <c r="F1596" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>4260019715326</t>
-        </is>
-      </c>
-      <c r="F1597" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1598">
-      <c r="A1598" t="inlineStr">
-        <is>
-          <t>4260019713186</t>
-        </is>
-      </c>
-      <c r="F1598" t="n">
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="1599">
-      <c r="A1599" t="inlineStr">
-        <is>
-          <t>0753088700118</t>
-        </is>
-      </c>
-      <c r="F1599" t="n">
-        <v>132.76</v>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>0753088001437</t>
-        </is>
-      </c>
-      <c r="F1600" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>0753088002670</t>
-        </is>
-      </c>
-      <c r="F1601" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>0753088002717</t>
-        </is>
-      </c>
-      <c r="F1602" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>0753088202919</t>
-        </is>
-      </c>
-      <c r="F1603" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>0753088003615</t>
-        </is>
-      </c>
-      <c r="F1604" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1605">
-      <c r="A1605" t="inlineStr">
-        <is>
-          <t>0753088036415</t>
-        </is>
-      </c>
-      <c r="F1605" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1606">
-      <c r="A1606" t="inlineStr">
-        <is>
-          <t>0753088004117</t>
-        </is>
-      </c>
-      <c r="F1606" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1607">
-      <c r="A1607" t="inlineStr">
-        <is>
-          <t>0753088004216</t>
-        </is>
-      </c>
-      <c r="F1607" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1608">
-      <c r="A1608" t="inlineStr">
-        <is>
-          <t>0753088004636</t>
-        </is>
-      </c>
-      <c r="F1608" t="n">
-        <v>156.12</v>
-      </c>
-    </row>
-    <row r="1609">
-      <c r="A1609" t="inlineStr">
-        <is>
-          <t>0753088048012</t>
-        </is>
-      </c>
-      <c r="F1609" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1610">
-      <c r="A1610" t="inlineStr">
-        <is>
-          <t>0753088005114</t>
-        </is>
-      </c>
-      <c r="F1610" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1611">
-      <c r="A1611" t="inlineStr">
-        <is>
-          <t>0753088544576</t>
-        </is>
-      </c>
-      <c r="F1611" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1612">
-      <c r="A1612" t="inlineStr">
-        <is>
-          <t>0753088005619</t>
-        </is>
-      </c>
-      <c r="F1612" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1613">
-      <c r="A1613" t="inlineStr">
-        <is>
-          <t>0753088005817</t>
-        </is>
-      </c>
-      <c r="F1613" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>0753088016318</t>
-        </is>
-      </c>
-      <c r="F1614" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>0753088016417</t>
-        </is>
-      </c>
-      <c r="F1615" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>0753088016516</t>
-        </is>
-      </c>
-      <c r="F1616" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>0753088006517</t>
-        </is>
-      </c>
-      <c r="F1617" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>0753088016714</t>
-        </is>
-      </c>
-      <c r="F1618" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>0753088674570</t>
-        </is>
-      </c>
-      <c r="F1619" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>0753088016813</t>
-        </is>
-      </c>
-      <c r="F1620" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>0753088007019</t>
-        </is>
-      </c>
-      <c r="F1621" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>0753088007118</t>
-        </is>
-      </c>
-      <c r="F1622" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>0753088007217</t>
-        </is>
-      </c>
-      <c r="F1623" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>0753088007675</t>
-        </is>
-      </c>
-      <c r="F1624" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>0753088007873</t>
-        </is>
-      </c>
-      <c r="F1625" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>0753088008177</t>
-        </is>
-      </c>
-      <c r="F1626" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>0753088008313</t>
-        </is>
-      </c>
-      <c r="F1627" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>0753088008375</t>
-        </is>
-      </c>
-      <c r="F1628" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>0753088008412</t>
-        </is>
-      </c>
-      <c r="F1629" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>0753088009013</t>
-        </is>
-      </c>
-      <c r="F1630" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>0753088964510</t>
-        </is>
-      </c>
-      <c r="F1631" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>0753088099014</t>
-        </is>
-      </c>
-      <c r="F1632" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>0753088994579</t>
-        </is>
-      </c>
-      <c r="F1633" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>0753088010118</t>
-        </is>
-      </c>
-      <c r="F1634" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>0753088014574</t>
-        </is>
-      </c>
-      <c r="F1635" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>0753088010514</t>
-        </is>
-      </c>
-      <c r="F1636" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>0753088010712</t>
-        </is>
-      </c>
-      <c r="F1637" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>0753088010811</t>
-        </is>
-      </c>
-      <c r="F1638" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>0753088010910</t>
-        </is>
-      </c>
-      <c r="F1639" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>0753088011313</t>
-        </is>
-      </c>
-      <c r="F1640" t="n">
-        <v>140.09</v>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>0753088011610</t>
-        </is>
-      </c>
-      <c r="F1641" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>0753088000614</t>
-        </is>
-      </c>
-      <c r="F1642" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>0753088119415</t>
-        </is>
-      </c>
-      <c r="F1643" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>0753088155819</t>
-        </is>
-      </c>
-      <c r="F1644" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>0753088190315</t>
-        </is>
-      </c>
-      <c r="F1645" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>0753088193415</t>
-        </is>
-      </c>
-      <c r="F1646" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>0753088198410</t>
-        </is>
-      </c>
-      <c r="F1647" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>0753088220111</t>
-        </is>
-      </c>
-      <c r="F1648" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>0753088222511</t>
-        </is>
-      </c>
-      <c r="F1649" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>0753088224119</t>
-        </is>
-      </c>
-      <c r="F1650" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>0753088229817</t>
-        </is>
-      </c>
-      <c r="F1651" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>0753088231414</t>
-        </is>
-      </c>
-      <c r="F1652" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>0753088232312</t>
-        </is>
-      </c>
-      <c r="F1653" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>0753088233616</t>
-        </is>
-      </c>
-      <c r="F1654" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>0753088234118</t>
-        </is>
-      </c>
-      <c r="F1655" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>0753088239816</t>
-        </is>
-      </c>
-      <c r="F1656" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>0753088240010</t>
-        </is>
-      </c>
-      <c r="F1657" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>0753088242113</t>
-        </is>
-      </c>
-      <c r="F1658" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>0753088243677</t>
-        </is>
-      </c>
-      <c r="F1659" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>0753088244612</t>
-        </is>
-      </c>
-      <c r="F1660" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>0753088244674</t>
-        </is>
-      </c>
-      <c r="F1661" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>0753088247118</t>
-        </is>
-      </c>
-      <c r="F1662" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>0753088714511</t>
-        </is>
-      </c>
-      <c r="F1663" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>0753088255915</t>
-        </is>
-      </c>
-      <c r="F1664" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>0753088262111</t>
-        </is>
-      </c>
-      <c r="F1665" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>0753088026515</t>
-        </is>
-      </c>
-      <c r="F1666" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>0753088270871</t>
-        </is>
-      </c>
-      <c r="F1667" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>0753088270970</t>
-        </is>
-      </c>
-      <c r="F1668" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>0753088279577</t>
-        </is>
-      </c>
-      <c r="F1669" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>0753088304118</t>
-        </is>
-      </c>
-      <c r="F1670" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>0753088441813</t>
-        </is>
-      </c>
-      <c r="F1671" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>0753088441875</t>
-        </is>
-      </c>
-      <c r="F1672" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>0753088605512</t>
-        </is>
-      </c>
-      <c r="F1673" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>0753088609411</t>
-        </is>
-      </c>
-      <c r="F1674" t="n">
-        <v>203.35</v>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>0753088610417</t>
-        </is>
-      </c>
-      <c r="F1675" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>0753088610912</t>
-        </is>
-      </c>
-      <c r="F1676" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>0753088612312</t>
-        </is>
-      </c>
-      <c r="F1677" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>0753088612411</t>
-        </is>
-      </c>
-      <c r="F1678" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>0753088710018</t>
-        </is>
-      </c>
-      <c r="F1679" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>0753088727818</t>
-        </is>
-      </c>
-      <c r="F1680" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>0753088812712</t>
-        </is>
-      </c>
-      <c r="F1681" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>0753088819711</t>
-        </is>
-      </c>
-      <c r="F1682" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>0753088824319</t>
-        </is>
-      </c>
-      <c r="F1683" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>0753088843211</t>
-        </is>
-      </c>
-      <c r="F1684" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>0753088845413</t>
-        </is>
-      </c>
-      <c r="F1685" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>0753088003516</t>
-        </is>
-      </c>
-      <c r="F1686" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>0753088849718</t>
-        </is>
-      </c>
-      <c r="F1687" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>0753088854514</t>
-        </is>
-      </c>
-      <c r="F1688" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>0753088872211</t>
-        </is>
-      </c>
-      <c r="F1689" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>0753088876219</t>
-        </is>
-      </c>
-      <c r="F1690" t="n">
-        <v>121.82</v>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>0753088336973</t>
-        </is>
-      </c>
-      <c r="F1691" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>0753088500770</t>
-        </is>
-      </c>
-      <c r="F1692" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>0753088501173</t>
-        </is>
-      </c>
-      <c r="F1693" t="n">
-        <v>203.3</v>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>0753088402876</t>
-        </is>
-      </c>
-      <c r="F1694" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>0753088403415</t>
-        </is>
-      </c>
-      <c r="F1695" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>0753088403811</t>
-        </is>
-      </c>
-      <c r="F1696" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>0753088405112</t>
-        </is>
-      </c>
-      <c r="F1697" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>0753088408670</t>
-        </is>
-      </c>
-      <c r="F1698" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>0753088411212</t>
-        </is>
-      </c>
-      <c r="F1699" t="n">
-        <v>184.54</v>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>5060149620151</t>
-        </is>
-      </c>
-      <c r="F1700" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>5060149621318</t>
-        </is>
-      </c>
-      <c r="F1701" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>5060149622131</t>
-        </is>
-      </c>
-      <c r="F1702" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>5060149620045</t>
-        </is>
-      </c>
-      <c r="F1703" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>5060149622513</t>
-        </is>
-      </c>
-      <c r="F1704" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>5060149620847</t>
-        </is>
-      </c>
-      <c r="F1705" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>5060149622254</t>
-        </is>
-      </c>
-      <c r="F1706" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>5060149622940</t>
-        </is>
-      </c>
-      <c r="F1707" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>5060149620830</t>
-        </is>
-      </c>
-      <c r="F1708" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>5060149622056</t>
-        </is>
-      </c>
-      <c r="F1709" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>5060149622155</t>
-        </is>
-      </c>
-      <c r="F1710" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>5060149621943</t>
-        </is>
-      </c>
-      <c r="F1711" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>5060149621721</t>
-        </is>
-      </c>
-      <c r="F1712" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>5060149620298</t>
-        </is>
-      </c>
-      <c r="F1713" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>5060149621165</t>
-        </is>
-      </c>
-      <c r="F1714" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>5060149620755</t>
-        </is>
-      </c>
-      <c r="F1715" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>5060149621387</t>
-        </is>
-      </c>
-      <c r="F1716" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>5060149622964</t>
-        </is>
-      </c>
-      <c r="F1717" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>5060149621578</t>
-        </is>
-      </c>
-      <c r="F1718" t="n">
-        <v>38.41</v>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>5060149620281</t>
-        </is>
-      </c>
-      <c r="F1719" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>5060149621653</t>
-        </is>
-      </c>
-      <c r="F1720" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>5060149621981</t>
-        </is>
-      </c>
-      <c r="F1721" t="n">
-        <v>110.48</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>5060149622292</t>
-        </is>
-      </c>
-      <c r="F1722" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>5060149621127</t>
-        </is>
-      </c>
-      <c r="F1723" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>5060149620939</t>
-        </is>
-      </c>
-      <c r="F1724" t="n">
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>3700409812347</t>
-        </is>
-      </c>
-      <c r="F1725" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>3700409813719</t>
-        </is>
-      </c>
-      <c r="F1726" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>3700409813726</t>
-        </is>
-      </c>
-      <c r="F1727" t="n">
-        <v>83.66</v>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>3700409815065</t>
-        </is>
-      </c>
-      <c r="F1728" t="n">
-        <v>83.66</v>
+        <v>76.87</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Void/void - Speakers Corner.xlsx
+++ b/Test/Void/void - Speakers Corner.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1287"/>
+  <dimension ref="A1:F1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="F1277" t="n">
-        <v>76.87</v>
+        <v>203.3</v>
       </c>
     </row>
     <row r="1278">
@@ -13223,6 +13223,16 @@
       </c>
       <c r="F1287" t="n">
         <v>76.87</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>5060149623333</t>
+        </is>
+      </c>
+      <c r="F1288" t="n">
+        <v>203.3</v>
       </c>
     </row>
   </sheetData>
